--- a/2025-10-15/15_ai.full_fixtures.xlsx
+++ b/2025-10-15/15_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,28 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Athletico Paranaense  - Avaí FC: 1:1</t>
+          <t>Jamaica ✓ - Bermuda: 4:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.81</v>
+        <v>3.62</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Club Athletico Paranaense</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -523,19 +527,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jamaica ✓ - Bermuda: 4:0</t>
+          <t>FBC Melgar ✓ - Alianza Universidad: 2:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -548,10 +552,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FBC Melgar ✓ - Alianza Universidad: 2:1</t>
+          <t>Puerto Rico - Argentina ✓: 0:6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -578,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +591,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -601,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras  - Red Bull Bragantino: 23:00</t>
+          <t>Sociedade Esportiva Palmeiras ✓ - Red Bull Bragantino: 5:1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -620,9 +624,13 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -636,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>United States ✓ - Australia: 2:1</t>
+          <t>Club Athletico Paranaense  - Avaí FC: 1:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Club Athletico Paranaense</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -652,19 +660,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -710,15 +714,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Puerto Rico - Argentina ✓: 0:6</t>
+          <t>Atlético Nacional ✓ - Deportivo Cali: 2:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -735,7 +739,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -749,15 +753,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlético Nacional ✓ - Deportivo Cali: 2:1</t>
+          <t>United States ✓ - Australia: 2:1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -765,7 +769,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -804,7 +808,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -827,23 +831,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mexico  - Ecuador: 1:1</t>
+          <t>Panama  - Suriname: 1:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -851,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -862,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ironi Modiin - Maccabi Petah Tikva : 17:00</t>
+          <t>Ironi Modiin - Maccabi Petah Tikva ✓: 1:2</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -881,12 +885,16 @@
           <t>36%</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -897,31 +905,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Panama  - Suriname: 1:1</t>
+          <t>Shkendija Tetovo  - Tikves Kavadarci: 13:30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Shkendija Tetovo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -932,28 +940,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shkendija Tetovo  - Tikves Kavadarci: 13:30</t>
+          <t>Club Sport Sébaco  - ART Municipal Jalapa: 2:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.98</v>
+        <v>1.43</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Shkendija Tetovo</t>
+          <t>Club Sport Sébaco</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -967,15 +975,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Club Sport Sébaco  - ART Municipal Jalapa: 21:00</t>
+          <t>Al-Shabab SC (Oman)  - Al-Nasr Club: 14:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Club Sport Sébaco</t>
+          <t>Al-Shabab SC (Oman)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -983,12 +991,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1002,15 +1010,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al-Shabab SC (Oman)  - Al-Nasr Club: 14:00</t>
+          <t>22 de Julio FC X - Cumbayá FC: 1:3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Shabab SC (Oman)</t>
+          <t>22 de Julio FC</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1018,12 +1026,16 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1037,28 +1049,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22 de Julio FC  - Cumbayá FC: 21:00</t>
+          <t>Mexico  - Ecuador: 1:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22 de Julio FC</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1142,15 +1154,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Belize - Venezuela : 00:00</t>
+          <t>Canada - Colombia : 0:0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.45</v>
+        <v>2.97</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1158,7 +1170,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1177,31 +1189,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JS Saoura - JS Kabylie : 23:00</t>
+          <t>Belize - Venezuela : 00:00</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JS Kabylie</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1212,15 +1224,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Botafogo de Futebol e Regatas - CR Flamengo : 23:30</t>
+          <t>JS Saoura - JS Kabylie : 23:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CR Flamengo</t>
+          <t>JS Kabylie</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1228,12 +1240,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1247,28 +1259,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AD Municipal Liberia  - Puntarenas FC: 0:0</t>
+          <t>Arsenal Tula ✓ - Sokol Saratov: 1:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.24</v>
+        <v>0.71</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AD Municipal Liberia</t>
+          <t>Arsenal Tula</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1282,15 +1298,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASO Chlef - CR Belouizdad : 23:00</t>
+          <t>AD Municipal Liberia  - Puntarenas FC: 0:0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CR Belouizdad</t>
+          <t>AD Municipal Liberia</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1303,10 +1319,10 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1317,31 +1333,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Canada - Colombia : 0:0</t>
+          <t>ASO Chlef - CR Belouizdad : 23:00</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.97</v>
+        <v>1.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>CR Belouizdad</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1368,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MFK Zvolen  - Dynamo Malzenice: 14:00</t>
+          <t>Botafogo de Futebol e Regatas - CR Flamengo ✓: 0:3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.02</v>
+        <v>1.43</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MFK Zvolen</t>
+          <t>CR Flamengo</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1387,28 +1407,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MB Rouissat  - ES Ben Aknoun: 23:00</t>
+          <t>MFK Zvolen ✓ - Dynamo Malzenice: 3:1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>MFK Zvolen</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1422,15 +1446,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CS Constantine  - Olympique Akbou: 23:00</t>
+          <t>MB Rouissat  - ES Ben Aknoun: 23:00</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1438,7 +1462,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1457,35 +1481,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Uganda People's Defence Force FC X - Maroons FC: 1:2</t>
+          <t>CS Constantine  - Olympique Akbou: 23:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.06</v>
+        <v>1.14</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Uganda People's Defence Force FC</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1496,32 +1516,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Salvador - Guatemala ✓: 0:1</t>
+          <t>Uganda People's Defence Force FC X - Maroons FC: 1:2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Uganda People's Defence Force FC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1535,15 +1555,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dhofar Club  - Samail SC: 15:25</t>
+          <t>Shinnik Yaroslavl X - Neftekhimik Nizhnekamsk: 4:6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dhofar Club</t>
+          <t>Shinnik Yaroslavl</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1551,12 +1571,16 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1570,15 +1594,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MC El Bayadh - MC Oran : 23:00</t>
+          <t>FK Slutsk - Neman Grodno X: 2:1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Neman Grodno</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1586,12 +1610,16 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1605,32 +1633,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FK Slutsk - Neman Grodno X: 2:1</t>
+          <t>Dhofar Club  - Samail SC: 15:25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.16</v>
+        <v>0.66</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Neman Grodno</t>
+          <t>Dhofar Club</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1644,15 +1668,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Al-Rustaq Club - Saham Club : 16:40</t>
+          <t>Chaika Peschanokopskoe X - KamAZ Naberezhnye Chelny: 1:3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Saham Club</t>
+          <t>Chaika Peschanokopskoe</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1660,12 +1684,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1679,15 +1707,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paradou AC  - ES Mostaganem: 23:00</t>
+          <t>MC El Bayadh - MC Oran : 23:00</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Paradou AC</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1695,7 +1723,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1714,35 +1742,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CD Choloma - Lobos de la UPNFM X: 5:1</t>
+          <t>El Salvador - Guatemala ✓: 0:1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.52</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lobos de la UPNFM</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1753,28 +1781,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ES Sétif - USM Alger : 23:00</t>
+          <t>Al-Rustaq Club - Saham Club : 16:40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Saham Club</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1788,15 +1816,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Platense FC  - CD Victoria La Ceiba: 22:00</t>
+          <t>Paradou AC  - ES Mostaganem: 23:00</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Paradou AC</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1804,15 +1832,128 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Wed Oct 15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CD Choloma - Lobos de la UPNFM X: 5:1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Lobos de la UPNFM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Wed Oct 15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ES Sétif - USM Alger : 23:00</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>USM Alger</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>23</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Wed Oct 15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Platense FC ✓ - CD Victoria La Ceiba: 2:0</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
